--- a/ExcelFiles/TutorialsNinja.xlsx
+++ b/ExcelFiles/TutorialsNinja.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/nimalkumar_j_ad_infosys_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimalkumar.j\PycharmProjects\HybridePythonSeleniumFramework\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{565FE87E-6C4F-47BC-84D1-047ADD196384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7283B4C-FB6C-4265-A9B7-CC60CA88FEE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206FB6F-3618-49AC-A41C-879718105E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66C2FFDA-A15F-474E-8E77-7F73A52A1741}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{66C2FFDA-A15F-474E-8E77-7F73A52A1741}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -60,6 +61,18 @@
   </si>
   <si>
     <t>nirmalsamplethree@yahoo.com</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Nirmal Kumar</t>
+  </si>
+  <si>
+    <t>CJ</t>
   </si>
 </sst>
 </file>
@@ -97,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +118,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234BAA72-D8EC-4320-B12E-B5E16EC770D0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -501,4 +531,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C90FAE-24B3-42EF-A86C-F916C443597C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>